--- a/Ramu_Sneha_CPI.xlsx
+++ b/Ramu_Sneha_CPI.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sneha R\OneDrive\Desktop\Data Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7B54F2-06EB-4FA9-94C4-D545AE12A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906ACDA-1742-4AA1-B0CA-247B0D8C0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{ACDF8D19-7604-4108-829E-C6F9D21BCFF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ACDF8D19-7604-4108-829E-C6F9D21BCFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Capri Holdings" sheetId="3" r:id="rId1"/>
     <sheet name="CPH vs. RL" sheetId="2" r:id="rId2"/>
     <sheet name="Letter to Shareholders" sheetId="5" r:id="rId3"/>
-    <sheet name="Refresnces" sheetId="4" r:id="rId4"/>
+    <sheet name="References" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Capri Holdings'!$A$1:$M$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Capri Holdings'!$A$1:$M$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'CPH vs. RL'!$A$1:$M$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -500,9 +500,6 @@
     <t>Sales by Geaography</t>
   </si>
   <si>
-    <t>Insights</t>
-  </si>
-  <si>
     <t>Revenue - CPH vs. RL</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>RL-Earnings,$B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -762,6 +762,9 @@
     </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19273,12 +19276,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>110756</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7778750" cy="9328150"/>
+    <xdr:ext cx="7996570" cy="11681046"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -19292,8 +19295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="831850" y="184150"/>
-          <a:ext cx="7778750" cy="9328150"/>
+          <a:off x="1336454" y="0"/>
+          <a:ext cx="7996570" cy="11681046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19315,14 +19318,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19337,7 +19340,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19348,7 +19351,7 @@
             </a:rPr>
             <a:t>Jimmy Choo, Michael Kors, and Versace formed Capri Holdings in 2019 and have been trying to increase shareholder value ever since. We are a worldwide luxury brand with a recognized, award-winning designer and one of the best management teams in the world. We all know that in the last few decades, the personal luxury goods market has seen tremendous growth and competitiveness. This is due to increased demand from both international and domestic consumers, as well as demographic and socioeconomic developments that have resulted in younger generations purchasing increasingly more luxury goods.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19361,7 +19364,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19370,9 +19373,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>As the demand for luxury products rises, so does the level of competition among the industry's leading brands. Ralph Lauren, Balmain Paris, American Eagle Outfitters, and others are among our primary competitors. As per the Pitch Book, Ralph Lauren is our most direct competitor, with a similarity score of 99.61 percent.</a:t>
+            <a:t>   As the demand for luxury products rises, so does the level of competition among the industry's leading brands. Ralph Lauren, Balmain Paris, American Eagle Outfitters, and others are among our primary competitors. As per the Pitch Book, Ralph Lauren is our most direct competitor, with a similarity score of 99.61 percent.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19385,7 +19388,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19394,9 +19397,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Our stocks outperform our top competitor, Ralph Lauren, in terms of close price, volume of stocks, and average yearly returns. When compared to Ralph Lauren, we are doing a tremendous job in retaining a good enterprise value. Also our stocks produce higher profit on average in a day. Our weekly growth and size multiples are far superior to Ralph Lauren's.</a:t>
+            <a:t>   Our stocks outperform our top competitor, Ralph Lauren, in terms of close price, volume of stocks, and average yearly returns. When compared to Ralph Lauren, we are doing a tremendous job in retaining a good enterprise value. Also our stocks produce higher profit on average in a day. Our weekly growth and size multiples are far superior to Ralph Lauren's.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19409,7 +19412,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19418,9 +19421,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  But due to the recent impact of the COVID outbreak, sales and profitability for all luxury goods brands decreased from the third  quarter of 2020 to the first quarter of 2021. And we are no exception, having witnessed sales. Capri reported a 17 percent drop in revenue to $1.3 billion in the third quarter, with a gross profit of $848 million, down from $932 million the year before. Michael Kors and Jimmy Choo saw revenue declines of 18.6% and 26.7 percent, respectively, while Versace's revenue remained steady at $195 million.</a:t>
+            <a:t>But due to the recent impact of the COVID outbreak, sales and profitability for all luxury goods brands decreased from the third  quarter of 2020 to the first quarter of 2021. And we are no exception, having witnessed sales. Capri reported a 17 percent drop in revenue to $1.3 billion in the third quarter, with a gross profit of $848 million, down from $932 million the year before. Michael Kors and Jimmy Choo saw revenue declines of 18.6% and 26.7 percent, respectively, while Versace's revenue remained steady at $195 million.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19433,7 +19436,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19442,9 +19445,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>However, by the end of the second fiscal quarter of 2021, we had seen a rise in sales, revenue, and earnings. After the European market was severely impacted, with 40% of stores closing, there is very little chance for a recovery in that region. However, some revenues have been recouped through performances in the United States and Asia. We were preparing for a revenue loss of around 70% in the first quarter of 2021, and considerably more in the subsequent quarters.</a:t>
+            <a:t>   However, by the end of the second fiscal quarter of 2021, we had seen a rise in sales, revenue, and earnings. After the European market was severely impacted, with 40% of stores closing, there is very little chance for a recovery in that region. However, some revenues have been recouped through performances in the United States and Asia. We were preparing for a revenue loss of around 70% in the first quarter of 2021, and considerably more in the subsequent quarters.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19457,7 +19460,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19468,7 +19471,7 @@
             </a:rPr>
             <a:t>Surprisingly e-commerce became a shining light for us. In the second quarter of 2021, we had a 60 percent increase in sales, followed by a 65 percent increase in the third quarter. It just took considerable e-commerce capabilities, such as customer experience, distribution, and store order fulfillment, to make it happen.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19481,7 +19484,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19490,9 +19493,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>We now intend to raise the price of our stocks in order to compete with even higher-end luxury brands. To do so, we'll concentrate on keeping up with changing trends and advances while also addressing our weaknesses. To begin with, we know that because the entire world is obliged to stay at home or avoid crowds, consumers are forced to switch to internet purchasing rather than in-store purchases. Second, we should focus on improving our transparency index score, following on a report on the Fashion Transparency Index 2020 by issuu, we arrived in a very poor index category.</a:t>
+            <a:t>   We now intend to raise the price of our stocks in order to compete with even higher-end luxury brands. To do so, we'll concentrate on keeping up with changing trends and advances while also addressing our weaknesses. To begin with, we know that because the entire world is obliged to stay at home or avoid crowds, consumers are forced to switch to internet purchasing rather than in-store purchases. Second, we should focus on improving our transparency index score, following on a report on the Fashion Transparency Index 2020 by issuu, we arrived in a very poor index category.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19505,7 +19508,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19516,7 +19519,7 @@
             </a:rPr>
             <a:t>While brands such as Gucci, Adidas, Nike, Marks &amp; Spencer, H&amp;M, and many others perform better by being more transparent about policies and commitments, their top level executives, being more detailed publishers of their suppliers, tiers, and other employee benefits, and providing better living conditions to their employees with good wages and other employee benefits. Given our low performance in this area, we have resolved to address the problem and improve our client experience.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19529,7 +19532,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19540,7 +19543,7 @@
             </a:rPr>
             <a:t>We are discussing ways to increase the quality of our e-commerce as a remedy to the challenges mentioned previously. We propose developing an app that would allow users to make purchases with greater ease than they could on other websites. We recommend creating a comprehensive but unified app for all three brands. This program would lead clients to the brand of their choice in a few simple steps, avoiding the latencies that occur while making purchases on websites. We'd also put money into increasing the quality of online pages when they're accessed through various portals.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19553,7 +19556,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19564,7 +19567,7 @@
             </a:rPr>
             <a:t>This would be a good way to address the issue of closing stores and reclaim sales from European markets. This would also be beneficial in other markets, allowing clients to cope with their hectic lives while simultaneously giving them more time to rest.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19577,7 +19580,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19588,7 +19591,7 @@
             </a:rPr>
             <a:t>In terms of the transparency index, we've previously stated our corporate social responsibility objectives on the occasion of Earth Day's 50th anniversary this year. We committed to achieving net zero emissions and 100% renewable energy by 2025 as a result of this. We intend to issue a report that details all the Capri's actions during the year that have helped to make our pledge more feasible. Supplied Chain Disclosure and the Conflict Minerals Rule followed.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19601,7 +19604,7 @@
         <a:p>
           <a:pPr lvl="1" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19612,7 +19615,7 @@
             </a:rPr>
             <a:t>We plan to be transparent about all our labor policies under the Supply Chain Disclosure and work closely with all concerned executives and managers to put an end to 'modern slavery.' We'll pay great attention to not only publishing it, but also enforcing it in all our factories and stores. We also intend to update and restate our Code of Conduct for Business Partners, making it applicable to all members of the Capri family. In the year 2020, our score for Michael Kors and Versace was 6-10%, and we will pledge to raising it to a minimum of 51-60%, as well as enhancing our brand image and stock prices.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
+          <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -20671,8 +20674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30956C6E-D440-4CD2-9822-84760C1E5A15}">
   <dimension ref="A1:Z255"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="AM62" sqref="AM62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21820,21 +21823,19 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
       <c r="W47" s="1">
         <v>44230</v>
       </c>
@@ -24974,7 +24975,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -24986,8 +24987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DACCCE-A8EB-484D-AB4E-05B0E418186D}">
   <dimension ref="A1:AE254"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25082,19 +25083,19 @@
         <v>16</v>
       </c>
       <c r="Z2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC2" t="s">
         <v>16</v>
       </c>
       <c r="AD2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" t="s">
         <v>107</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -25560,7 +25561,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -25568,7 +25569,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -31428,7 +31429,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="2">
     <tablePart r:id="rId3"/>
@@ -31439,14 +31440,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CCE27A-608C-448C-A936-DD9208012A5D}">
-  <dimension ref="A1"/>
+  <dimension ref="R23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="23" spans="18:18" x14ac:dyDescent="0.35">
+      <c r="R23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31456,8 +31463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0209CB2-D487-4175-BED1-8B97271CEE6C}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Ramu_Sneha_CPI.xlsx
+++ b/Ramu_Sneha_CPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sneha R\OneDrive\Desktop\Data Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906ACDA-1742-4AA1-B0CA-247B0D8C0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F98590-8674-4CD6-A8FD-FD8A72D82D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ACDF8D19-7604-4108-829E-C6F9D21BCFF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{ACDF8D19-7604-4108-829E-C6F9D21BCFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Capri Holdings" sheetId="3" r:id="rId1"/>
@@ -19517,7 +19517,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>While brands such as Gucci, Adidas, Nike, Marks &amp; Spencer, H&amp;M, and many others perform better by being more transparent about policies and commitments, their top level executives, being more detailed publishers of their suppliers, tiers, and other employee benefits, and providing better living conditions to their employees with good wages and other employee benefits. Given our low performance in this area, we have resolved to address the problem and improve our client experience.</a:t>
+            <a:t>   While brands such as Gucci, Adidas, Nike, Marks &amp; Spencer, H&amp;M, and many others perform better by being more transparent about policies and commitments, their top level executives, being more detailed publishers of their suppliers, tiers, and other employee benefits, and providing better living conditions to their employees with good wages and other employee benefits. Given our low performance in this area, we have resolved to address the problem and improve our client experience.</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
@@ -19541,7 +19541,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>We are discussing ways to increase the quality of our e-commerce as a remedy to the challenges mentioned previously. We propose developing an app that would allow users to make purchases with greater ease than they could on other websites. We recommend creating a comprehensive but unified app for all three brands. This program would lead clients to the brand of their choice in a few simple steps, avoiding the latencies that occur while making purchases on websites. We'd also put money into increasing the quality of online pages when they're accessed through various portals.</a:t>
+            <a:t>   We are discussing ways to increase the quality of our e-commerce as a remedy to the challenges mentioned previously. We propose developing an app that would allow users to make purchases with greater ease than they could on other websites. We recommend creating a comprehensive but unified app for all three brands. This program would lead clients to the brand of their choice in a few simple steps, avoiding the latencies that occur while making purchases on websites. We'd also put money into increasing the quality of online pages when they're accessed through various portals.</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
@@ -19565,7 +19565,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>This would be a good way to address the issue of closing stores and reclaim sales from European markets. This would also be beneficial in other markets, allowing clients to cope with their hectic lives while simultaneously giving them more time to rest.</a:t>
+            <a:t>   This would be a good way to address the issue of closing stores and reclaim sales from European markets. This would also be beneficial in other markets, allowing clients to cope with their hectic lives while simultaneously giving them more time to rest.</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
@@ -19589,7 +19589,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>In terms of the transparency index, we've previously stated our corporate social responsibility objectives on the occasion of Earth Day's 50th anniversary this year. We committed to achieving net zero emissions and 100% renewable energy by 2025 as a result of this. We intend to issue a report that details all the Capri's actions during the year that have helped to make our pledge more feasible. Supplied Chain Disclosure and the Conflict Minerals Rule followed.</a:t>
+            <a:t>   In terms of the transparency index, we've previously stated our corporate social responsibility objectives on the occasion of Earth Day's 50th anniversary this year. We committed to achieving net zero emissions and 100% renewable energy by 2025 as a result of this. We intend to issue a report that details all the Capri's actions during the year that have helped to make our pledge more feasible. Supplied Chain Disclosure and the Conflict Minerals Rule followed.</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
@@ -19613,7 +19613,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>We plan to be transparent about all our labor policies under the Supply Chain Disclosure and work closely with all concerned executives and managers to put an end to 'modern slavery.' We'll pay great attention to not only publishing it, but also enforcing it in all our factories and stores. We also intend to update and restate our Code of Conduct for Business Partners, making it applicable to all members of the Capri family. In the year 2020, our score for Michael Kors and Versace was 6-10%, and we will pledge to raising it to a minimum of 51-60%, as well as enhancing our brand image and stock prices.</a:t>
+            <a:t>   We plan to be transparent about all our labor policies under the Supply Chain Disclosure and work closely with all concerned executives and managers to put an end to 'modern slavery.' We'll pay great attention to not only publishing it, but also enforcing it in all our factories and stores. We also intend to update and restate our Code of Conduct for Business Partners, making it applicable to all members of the Capri family. In the year 2020, our score for Michael Kors and Versace was 6-10%, and we will pledge to raising it to a minimum of 51-60%, as well as enhancing our brand image and stock prices.</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1200">
             <a:solidFill>
@@ -20674,7 +20674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30956C6E-D440-4CD2-9822-84760C1E5A15}">
   <dimension ref="A1:Z255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="AM62" sqref="AM62"/>
     </sheetView>
   </sheetViews>
@@ -24987,7 +24987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DACCCE-A8EB-484D-AB4E-05B0E418186D}">
   <dimension ref="A1:AE254"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
@@ -25066,9 +25066,9 @@
       <c r="R2" s="2">
         <v>35.380001</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.4800029999999964</v>
+        <v>#REF!</v>
       </c>
       <c r="U2" s="1">
         <v>44165</v>
@@ -25108,9 +25108,9 @@
       <c r="R3" s="2">
         <v>35.549999</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.85000599999999338</v>
+        <v>#REF!</v>
       </c>
       <c r="U3" s="1">
         <v>44166</v>
@@ -25150,9 +25150,9 @@
       <c r="R4" s="2">
         <v>37.099997999999999</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.5400010000000037</v>
+        <v>#REF!</v>
       </c>
       <c r="U4" s="1">
         <v>44167</v>
@@ -25192,9 +25192,9 @@
       <c r="R5" s="2">
         <v>38.790000999999997</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>7.5900040000000075</v>
+        <v>#REF!</v>
       </c>
       <c r="U5" s="1">
         <v>44168</v>
@@ -25234,9 +25234,9 @@
       <c r="R6" s="2">
         <v>39.130001</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.6600040000000007</v>
+        <v>#REF!</v>
       </c>
       <c r="U6" s="1">
         <v>44169</v>
@@ -25276,9 +25276,9 @@
       <c r="R7" s="2">
         <v>39.330002</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-6.0005000000003861E-2</v>
+        <v>#REF!</v>
       </c>
       <c r="U7" s="1">
         <v>44172</v>
@@ -25300,9 +25300,9 @@
       <c r="R8" s="2">
         <v>38.709999000000003</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.2600029999999975</v>
+        <v>#REF!</v>
       </c>
       <c r="U8" s="1">
         <v>44173</v>
@@ -25332,9 +25332,9 @@
       <c r="R9" s="2">
         <v>39.029998999999997</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.3100049999999896</v>
+        <v>#REF!</v>
       </c>
       <c r="U9" s="1">
         <v>44174</v>
@@ -25374,9 +25374,9 @@
       <c r="R10" s="2">
         <v>39.659999999999997</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.19999599999999873</v>
+        <v>#REF!</v>
       </c>
       <c r="U10" s="1">
         <v>44175</v>
@@ -25416,9 +25416,9 @@
       <c r="R11" s="2">
         <v>38.139999000000003</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-4.5700080000000014</v>
+        <v>#REF!</v>
       </c>
       <c r="U11" s="1">
         <v>44176</v>
@@ -25458,9 +25458,9 @@
       <c r="R12" s="2">
         <v>38.400002000000001</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-4.3899990000000031</v>
+        <v>#REF!</v>
       </c>
       <c r="U12" s="1">
         <v>44179</v>
@@ -25500,9 +25500,9 @@
       <c r="R13" s="2">
         <v>40.349997999999999</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.65000200000000063</v>
+        <v>#REF!</v>
       </c>
       <c r="U13" s="1">
         <v>44180</v>
@@ -25542,9 +25542,9 @@
       <c r="R14" s="2">
         <v>40.209999000000003</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.4499969999999962</v>
+        <v>#REF!</v>
       </c>
       <c r="U14" s="1">
         <v>44181</v>
@@ -25585,9 +25585,9 @@
       <c r="R15" s="2">
         <v>42.75</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.50999500000000353</v>
+        <v>#REF!</v>
       </c>
       <c r="U15" s="1">
         <v>44182</v>
@@ -25609,9 +25609,9 @@
       <c r="R16" s="2">
         <v>41.830002</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.20999899999999627</v>
+        <v>#REF!</v>
       </c>
       <c r="U16" s="1">
         <v>44183</v>
@@ -25639,9 +25639,9 @@
       <c r="R17" s="2">
         <v>41.880001</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.5</v>
+        <v>#REF!</v>
       </c>
       <c r="U17" s="1">
         <v>44186</v>
@@ -25669,9 +25669,9 @@
       <c r="R18" s="2">
         <v>42.389999000000003</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.0100020000000001</v>
+        <v>#REF!</v>
       </c>
       <c r="U18" s="1">
         <v>44187</v>
@@ -25699,9 +25699,9 @@
       <c r="R19" s="2">
         <v>42.630001</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.3499979999999994</v>
+        <v>#REF!</v>
       </c>
       <c r="U19" s="1">
         <v>44188</v>
@@ -25729,9 +25729,9 @@
       <c r="R20" s="2">
         <v>42.41</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.2400059999999939</v>
+        <v>#REF!</v>
       </c>
       <c r="U20" s="1">
         <v>44189</v>
@@ -25759,9 +25759,9 @@
       <c r="R21" s="2">
         <v>43.07</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.9400020000000069</v>
+        <v>#REF!</v>
       </c>
       <c r="U21" s="1">
         <v>44193</v>
@@ -25783,9 +25783,9 @@
       <c r="R22" s="2">
         <v>43.110000999999997</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.0699990000000099</v>
+        <v>#REF!</v>
       </c>
       <c r="U22" s="1">
         <v>44194</v>
@@ -25807,9 +25807,9 @@
       <c r="R23" s="2">
         <v>43.75</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.5600050000000039</v>
+        <v>#REF!</v>
       </c>
       <c r="U23" s="1">
         <v>44195</v>
@@ -25831,9 +25831,9 @@
       <c r="R24" s="2">
         <v>42</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.57999399999999923</v>
+        <v>#REF!</v>
       </c>
       <c r="U24" s="1">
         <v>44196</v>
@@ -25855,9 +25855,9 @@
       <c r="R25" s="2">
         <v>40.590000000000003</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.5499950000000098</v>
+        <v>#REF!</v>
       </c>
       <c r="U25" s="1">
         <v>44200</v>
@@ -25879,9 +25879,9 @@
       <c r="R26" s="2">
         <v>41.110000999999997</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.9899979999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="U26" s="1">
         <v>44201</v>
@@ -25903,9 +25903,9 @@
       <c r="R27" s="2">
         <v>42.700001</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>4.8100050000000039</v>
+        <v>#REF!</v>
       </c>
       <c r="U27" s="1">
         <v>44202</v>
@@ -25927,9 +25927,9 @@
       <c r="R28" s="2">
         <v>44.779998999999997</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.1800000000000068</v>
+        <v>#REF!</v>
       </c>
       <c r="U28" s="1">
         <v>44203</v>
@@ -25951,9 +25951,9 @@
       <c r="R29" s="2">
         <v>45.09</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.8200000000000074</v>
+        <v>#REF!</v>
       </c>
       <c r="U29" s="1">
         <v>44204</v>
@@ -25991,9 +25991,9 @@
       <c r="R30" s="2">
         <v>45.529998999999997</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.5699989999999957</v>
+        <v>#REF!</v>
       </c>
       <c r="U30" s="1">
         <v>44207</v>
@@ -26015,9 +26015,9 @@
       <c r="R31" s="2">
         <v>46.540000999999997</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>3.4900049999999965</v>
+        <v>#REF!</v>
       </c>
       <c r="U31" s="1">
         <v>44208</v>
@@ -26039,9 +26039,9 @@
       <c r="R32" s="2">
         <v>45.560001</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0999989999999968</v>
+        <v>#REF!</v>
       </c>
       <c r="U32" s="1">
         <v>44209</v>
@@ -26063,9 +26063,9 @@
       <c r="R33" s="2">
         <v>43.610000999999997</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.119995000000003</v>
+        <v>#REF!</v>
       </c>
       <c r="U33" s="1">
         <v>44210</v>
@@ -26087,9 +26087,9 @@
       <c r="R34" s="2">
         <v>42.849997999999999</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.2300030000000106</v>
+        <v>#REF!</v>
       </c>
       <c r="U34" s="1">
         <v>44211</v>
@@ -26111,9 +26111,9 @@
       <c r="R35" s="2">
         <v>42.580002</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.2699970000000036</v>
+        <v>#REF!</v>
       </c>
       <c r="U35" s="1">
         <v>44215</v>
@@ -26135,9 +26135,9 @@
       <c r="R36" s="2">
         <v>43.580002</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0600060000000013</v>
+        <v>#REF!</v>
       </c>
       <c r="U36" s="1">
         <v>44216</v>
@@ -26159,9 +26159,9 @@
       <c r="R37" s="2">
         <v>43.639999000000003</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.3899990000000031</v>
+        <v>#REF!</v>
       </c>
       <c r="U37" s="1">
         <v>44217</v>
@@ -26183,9 +26183,9 @@
       <c r="R38" s="2">
         <v>44.34</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.5599969999999956</v>
+        <v>#REF!</v>
       </c>
       <c r="U38" s="1">
         <v>44218</v>
@@ -26207,9 +26207,9 @@
       <c r="R39" s="2">
         <v>43.220001000000003</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.9399949999999961</v>
+        <v>#REF!</v>
       </c>
       <c r="U39" s="1">
         <v>44221</v>
@@ -26231,9 +26231,9 @@
       <c r="R40" s="2">
         <v>42.450001</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.2399979999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="U40" s="1">
         <v>44222</v>
@@ -26255,9 +26255,9 @@
       <c r="R41" s="2">
         <v>40.909999999999997</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-4.6399990000000031</v>
+        <v>#REF!</v>
       </c>
       <c r="U41" s="1">
         <v>44223</v>
@@ -26279,9 +26279,9 @@
       <c r="R42" s="2">
         <v>42.560001</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.5400010000000037</v>
+        <v>#REF!</v>
       </c>
       <c r="U42" s="1">
         <v>44224</v>
@@ -26303,9 +26303,9 @@
       <c r="R43" s="2">
         <v>41.66</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.4499969999999962</v>
+        <v>#REF!</v>
       </c>
       <c r="U43" s="1">
         <v>44225</v>
@@ -26335,9 +26335,9 @@
       <c r="R44" s="2">
         <v>41.650002000000001</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.6800010000000043</v>
+        <v>#REF!</v>
       </c>
       <c r="U44" s="1">
         <v>44228</v>
@@ -26359,9 +26359,9 @@
       <c r="R45" s="2">
         <v>42.73</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.56999999999999318</v>
+        <v>#REF!</v>
       </c>
       <c r="U45" s="1">
         <v>44229</v>
@@ -26383,9 +26383,9 @@
       <c r="R46" s="2">
         <v>43.810001</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.5299980000000062</v>
+        <v>#REF!</v>
       </c>
       <c r="U46" s="1">
         <v>44230</v>
@@ -26407,9 +26407,9 @@
       <c r="R47" s="2">
         <v>45.560001</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>4.4100039999999865</v>
+        <v>#REF!</v>
       </c>
       <c r="U47" s="1">
         <v>44231</v>
@@ -26431,9 +26431,9 @@
       <c r="R48" s="2">
         <v>46.099997999999999</v>
       </c>
-      <c r="S48" s="2">
+      <c r="S48" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.30000300000000379</v>
+        <v>#REF!</v>
       </c>
       <c r="U48" s="1">
         <v>44232</v>
@@ -26455,9 +26455,9 @@
       <c r="R49" s="2">
         <v>46.560001</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.0499949999999956</v>
+        <v>#REF!</v>
       </c>
       <c r="U49" s="1">
         <v>44235</v>
@@ -26489,9 +26489,9 @@
       <c r="R50" s="2">
         <v>44.619999</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.98000399999999388</v>
+        <v>#REF!</v>
       </c>
       <c r="U50" s="1">
         <v>44236</v>
@@ -26523,9 +26523,9 @@
       <c r="R51" s="2">
         <v>45.189999</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.73000399999999388</v>
+        <v>#REF!</v>
       </c>
       <c r="U51" s="1">
         <v>44237</v>
@@ -26557,9 +26557,9 @@
       <c r="R52" s="2">
         <v>45.540000999999997</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.79000000000000625</v>
+        <v>#REF!</v>
       </c>
       <c r="U52" s="1">
         <v>44238</v>
@@ -26591,9 +26591,9 @@
       <c r="R53" s="2">
         <v>46.009998000000003</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.4000010000000032</v>
+        <v>#REF!</v>
       </c>
       <c r="U53" s="1">
         <v>44239</v>
@@ -26625,9 +26625,9 @@
       <c r="R54" s="2">
         <v>46.759998000000003</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.43999500000001035</v>
+        <v>#REF!</v>
       </c>
       <c r="U54" s="1">
         <v>44243</v>
@@ -26659,9 +26659,9 @@
       <c r="R55" s="2">
         <v>45.860000999999997</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.39999399999999241</v>
+        <v>#REF!</v>
       </c>
       <c r="U55" s="1">
         <v>44244</v>
@@ -26693,9 +26693,9 @@
       <c r="R56" s="2">
         <v>44.240001999999997</v>
       </c>
-      <c r="S56" s="2">
+      <c r="S56" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.11999500000000296</v>
+        <v>#REF!</v>
       </c>
       <c r="U56" s="1">
         <v>44245</v>
@@ -26727,9 +26727,9 @@
       <c r="R57" s="2">
         <v>45.889999000000003</v>
       </c>
-      <c r="S57" s="2">
+      <c r="S57" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.4199979999999925</v>
+        <v>#REF!</v>
       </c>
       <c r="U57" s="1">
         <v>44246</v>
@@ -26751,9 +26751,9 @@
       <c r="R58" s="2">
         <v>47.189999</v>
       </c>
-      <c r="S58" s="2">
+      <c r="S58" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>4.6800000000000068</v>
+        <v>#REF!</v>
       </c>
       <c r="U58" s="1">
         <v>44249</v>
@@ -26775,9 +26775,9 @@
       <c r="R59" s="2">
         <v>46.860000999999997</v>
       </c>
-      <c r="S59" s="2">
+      <c r="S59" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.1600040000000007</v>
+        <v>#REF!</v>
       </c>
       <c r="U59" s="1">
         <v>44250</v>
@@ -26799,9 +26799,9 @@
       <c r="R60" s="2">
         <v>47.790000999999997</v>
       </c>
-      <c r="S60" s="2">
+      <c r="S60" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.879997000000003</v>
+        <v>#REF!</v>
       </c>
       <c r="U60" s="1">
         <v>44251</v>
@@ -26823,9 +26823,9 @@
       <c r="R61" s="2">
         <v>46.599997999999999</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S61" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.9499970000000104</v>
+        <v>#REF!</v>
       </c>
       <c r="U61" s="1">
         <v>44252</v>
@@ -26847,9 +26847,9 @@
       <c r="R62" s="2">
         <v>46.669998</v>
       </c>
-      <c r="S62" s="2">
+      <c r="S62" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.41999800000000675</v>
+        <v>#REF!</v>
       </c>
       <c r="U62" s="1">
         <v>44253</v>
@@ -26871,9 +26871,9 @@
       <c r="R63" s="2">
         <v>48.259998000000003</v>
       </c>
-      <c r="S63" s="2">
+      <c r="S63" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.3099969999999956</v>
+        <v>#REF!</v>
       </c>
       <c r="U63" s="1">
         <v>44256</v>
@@ -26895,9 +26895,9 @@
       <c r="R64" s="2">
         <v>47.919998</v>
       </c>
-      <c r="S64" s="2">
+      <c r="S64" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.1099999999999994</v>
+        <v>#REF!</v>
       </c>
       <c r="U64" s="1">
         <v>44257</v>
@@ -26919,9 +26919,9 @@
       <c r="R65" s="2">
         <v>47.93</v>
       </c>
-      <c r="S65" s="2">
+      <c r="S65" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.43000000000000682</v>
+        <v>#REF!</v>
       </c>
       <c r="U65" s="1">
         <v>44258</v>
@@ -26943,9 +26943,9 @@
       <c r="R66" s="2">
         <v>46.439999</v>
       </c>
-      <c r="S66" s="2">
+      <c r="S66" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0100020000000001</v>
+        <v>#REF!</v>
       </c>
       <c r="U66" s="1">
         <v>44259</v>
@@ -26967,9 +26967,9 @@
       <c r="R67" s="2">
         <v>47.700001</v>
       </c>
-      <c r="S67" s="2">
+      <c r="S67" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.23000300000001062</v>
+        <v>#REF!</v>
       </c>
       <c r="U67" s="1">
         <v>44260</v>
@@ -26991,9 +26991,9 @@
       <c r="R68" s="2">
         <v>52.389999000000003</v>
       </c>
-      <c r="S68" s="2">
+      <c r="S68" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.5300060000000002</v>
+        <v>#REF!</v>
       </c>
       <c r="U68" s="1">
         <v>44263</v>
@@ -27015,9 +27015,9 @@
       <c r="R69" s="2">
         <v>53.57</v>
       </c>
-      <c r="S69" s="2">
+      <c r="S69" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.75</v>
+        <v>#REF!</v>
       </c>
       <c r="U69" s="1">
         <v>44264</v>
@@ -27039,9 +27039,9 @@
       <c r="R70" s="2">
         <v>53.860000999999997</v>
       </c>
-      <c r="S70" s="2">
+      <c r="S70" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.4099960000000067</v>
+        <v>#REF!</v>
       </c>
       <c r="U70" s="1">
         <v>44265</v>
@@ -27063,9 +27063,9 @@
       <c r="R71" s="2">
         <v>54.259998000000003</v>
       </c>
-      <c r="S71" s="2">
+      <c r="S71" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.1399990000000031</v>
+        <v>#REF!</v>
       </c>
       <c r="U71" s="1">
         <v>44266</v>
@@ -27087,9 +27087,9 @@
       <c r="R72" s="2">
         <v>54.060001</v>
       </c>
-      <c r="S72" s="2">
+      <c r="S72" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.59000399999999331</v>
+        <v>#REF!</v>
       </c>
       <c r="U72" s="1">
         <v>44267</v>
@@ -27111,9 +27111,9 @@
       <c r="R73" s="2">
         <v>56.639999000000003</v>
       </c>
-      <c r="S73" s="2">
+      <c r="S73" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.19999699999999621</v>
+        <v>#REF!</v>
       </c>
       <c r="U73" s="1">
         <v>44270</v>
@@ -27135,9 +27135,9 @@
       <c r="R74" s="2">
         <v>55.650002000000001</v>
       </c>
-      <c r="S74" s="2">
+      <c r="S74" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.2399979999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="U74" s="1">
         <v>44271</v>
@@ -27159,9 +27159,9 @@
       <c r="R75" s="2">
         <v>56.34</v>
       </c>
-      <c r="S75" s="2">
+      <c r="S75" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0400010000000037</v>
+        <v>#REF!</v>
       </c>
       <c r="U75" s="1">
         <v>44272</v>
@@ -27183,9 +27183,9 @@
       <c r="R76" s="2">
         <v>55.540000999999997</v>
       </c>
-      <c r="S76" s="2">
+      <c r="S76" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.4100030000000032</v>
+        <v>#REF!</v>
       </c>
       <c r="U76" s="1">
         <v>44273</v>
@@ -27207,9 +27207,9 @@
       <c r="R77" s="2">
         <v>55.189999</v>
       </c>
-      <c r="S77" s="2">
+      <c r="S77" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.34999799999999937</v>
+        <v>#REF!</v>
       </c>
       <c r="U77" s="1">
         <v>44274</v>
@@ -27231,9 +27231,9 @@
       <c r="R78" s="2">
         <v>53.290000999999997</v>
       </c>
-      <c r="S78" s="2">
+      <c r="S78" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.4800029999999964</v>
+        <v>#REF!</v>
       </c>
       <c r="U78" s="1">
         <v>44277</v>
@@ -27255,9 +27255,9 @@
       <c r="R79" s="2">
         <v>49.43</v>
       </c>
-      <c r="S79" s="2">
+      <c r="S79" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-7.1800000000000068</v>
+        <v>#REF!</v>
       </c>
       <c r="U79" s="1">
         <v>44278</v>
@@ -27279,9 +27279,9 @@
       <c r="R80" s="2">
         <v>48.150002000000001</v>
       </c>
-      <c r="S80" s="2">
+      <c r="S80" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0599980000000073</v>
+        <v>#REF!</v>
       </c>
       <c r="U80" s="1">
         <v>44279</v>
@@ -27303,9 +27303,9 @@
       <c r="R81" s="2">
         <v>49.299999</v>
       </c>
-      <c r="S81" s="2">
+      <c r="S81" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>5.880004999999997</v>
+        <v>#REF!</v>
       </c>
       <c r="U81" s="1">
         <v>44280</v>
@@ -27327,9 +27327,9 @@
       <c r="R82" s="2">
         <v>50.18</v>
       </c>
-      <c r="S82" s="2">
+      <c r="S82" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.9900059999999939</v>
+        <v>#REF!</v>
       </c>
       <c r="U82" s="1">
         <v>44281</v>
@@ -27351,9 +27351,9 @@
       <c r="R83" s="2">
         <v>47.310001</v>
       </c>
-      <c r="S83" s="2">
+      <c r="S83" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.2200009999999963</v>
+        <v>#REF!</v>
       </c>
       <c r="U83" s="1">
         <v>44284</v>
@@ -27375,9 +27375,9 @@
       <c r="R84" s="2">
         <v>49.830002</v>
       </c>
-      <c r="S84" s="2">
+      <c r="S84" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.4599989999999963</v>
+        <v>#REF!</v>
       </c>
       <c r="U84" s="1">
         <v>44285</v>
@@ -27399,9 +27399,9 @@
       <c r="R85" s="2">
         <v>51</v>
       </c>
-      <c r="S85" s="2">
+      <c r="S85" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.4400030000000044</v>
+        <v>#REF!</v>
       </c>
       <c r="U85" s="1">
         <v>44286</v>
@@ -27423,9 +27423,9 @@
       <c r="R86" s="2">
         <v>49.380001</v>
       </c>
-      <c r="S86" s="2">
+      <c r="S86" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.5099949999999893</v>
+        <v>#REF!</v>
       </c>
       <c r="U86" s="1">
         <v>44287</v>
@@ -27447,9 +27447,9 @@
       <c r="R87" s="2">
         <v>50.200001</v>
       </c>
-      <c r="S87" s="2">
+      <c r="S87" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.9300009999999901</v>
+        <v>#REF!</v>
       </c>
       <c r="U87" s="1">
         <v>44291</v>
@@ -27471,9 +27471,9 @@
       <c r="R88" s="2">
         <v>50.400002000000001</v>
       </c>
-      <c r="S88" s="2">
+      <c r="S88" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0002000000000066E-2</v>
+        <v>#REF!</v>
       </c>
       <c r="U88" s="1">
         <v>44292</v>
@@ -27495,9 +27495,9 @@
       <c r="R89" s="2">
         <v>50.740001999999997</v>
       </c>
-      <c r="S89" s="2">
+      <c r="S89" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0200049999999976</v>
+        <v>#REF!</v>
       </c>
       <c r="U89" s="1">
         <v>44293</v>
@@ -27519,9 +27519,9 @@
       <c r="R90" s="2">
         <v>52.18</v>
       </c>
-      <c r="S90" s="2">
+      <c r="S90" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.84000399999999331</v>
+        <v>#REF!</v>
       </c>
       <c r="U90" s="1">
         <v>44294</v>
@@ -27543,9 +27543,9 @@
       <c r="R91" s="2">
         <v>53.529998999999997</v>
       </c>
-      <c r="S91" s="2">
+      <c r="S91" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.8000030000000038</v>
+        <v>#REF!</v>
       </c>
       <c r="U91" s="1">
         <v>44295</v>
@@ -27567,9 +27567,9 @@
       <c r="R92" s="2">
         <v>53.900002000000001</v>
       </c>
-      <c r="S92" s="2">
+      <c r="S92" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.76000200000000007</v>
+        <v>#REF!</v>
       </c>
       <c r="U92" s="1">
         <v>44298</v>
@@ -27591,9 +27591,9 @@
       <c r="R93" s="2">
         <v>52.82</v>
       </c>
-      <c r="S93" s="2">
+      <c r="S93" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.130004999999997</v>
+        <v>#REF!</v>
       </c>
       <c r="U93" s="1">
         <v>44299</v>
@@ -27615,9 +27615,9 @@
       <c r="R94" s="2">
         <v>52.509998000000003</v>
       </c>
-      <c r="S94" s="2">
+      <c r="S94" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.370002999999997</v>
+        <v>#REF!</v>
       </c>
       <c r="U94" s="1">
         <v>44300</v>
@@ -27639,9 +27639,9 @@
       <c r="R95" s="2">
         <v>53.599997999999999</v>
       </c>
-      <c r="S95" s="2">
+      <c r="S95" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0199970000000036</v>
+        <v>#REF!</v>
       </c>
       <c r="U95" s="1">
         <v>44301</v>
@@ -27663,9 +27663,9 @@
       <c r="R96" s="2">
         <v>53.830002</v>
       </c>
-      <c r="S96" s="2">
+      <c r="S96" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.3600000000000136</v>
+        <v>#REF!</v>
       </c>
       <c r="U96" s="1">
         <v>44302</v>
@@ -27687,9 +27687,9 @@
       <c r="R97" s="2">
         <v>52.18</v>
       </c>
-      <c r="S97" s="2">
+      <c r="S97" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.6800009999999901</v>
+        <v>#REF!</v>
       </c>
       <c r="U97" s="1">
         <v>44305</v>
@@ -27711,9 +27711,9 @@
       <c r="R98" s="2">
         <v>50.630001</v>
       </c>
-      <c r="S98" s="2">
+      <c r="S98" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.9899979999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="U98" s="1">
         <v>44306</v>
@@ -27735,9 +27735,9 @@
       <c r="R99" s="2">
         <v>52.360000999999997</v>
       </c>
-      <c r="S99" s="2">
+      <c r="S99" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>3.629997000000003</v>
+        <v>#REF!</v>
       </c>
       <c r="U99" s="1">
         <v>44307</v>
@@ -27759,9 +27759,9 @@
       <c r="R100" s="2">
         <v>52.540000999999997</v>
       </c>
-      <c r="S100" s="2">
+      <c r="S100" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.41000300000000323</v>
+        <v>#REF!</v>
       </c>
       <c r="U100" s="1">
         <v>44308</v>
@@ -27783,9 +27783,9 @@
       <c r="R101" s="2">
         <v>53.799999</v>
       </c>
-      <c r="S101" s="2">
+      <c r="S101" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.60999999999999943</v>
+        <v>#REF!</v>
       </c>
       <c r="U101" s="1">
         <v>44309</v>
@@ -27807,9 +27807,9 @@
       <c r="R102" s="2">
         <v>52.82</v>
       </c>
-      <c r="S102" s="2">
+      <c r="S102" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.47999599999999987</v>
+        <v>#REF!</v>
       </c>
       <c r="U102" s="1">
         <v>44312</v>
@@ -27831,9 +27831,9 @@
       <c r="R103" s="2">
         <v>55.310001</v>
       </c>
-      <c r="S103" s="2">
+      <c r="S103" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.4700090000000046</v>
+        <v>#REF!</v>
       </c>
       <c r="U103" s="1">
         <v>44313</v>
@@ -27855,9 +27855,9 @@
       <c r="R104" s="2">
         <v>55.279998999999997</v>
       </c>
-      <c r="S104" s="2">
+      <c r="S104" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.1900029999999902</v>
+        <v>#REF!</v>
       </c>
       <c r="U104" s="1">
         <v>44314</v>
@@ -27879,9 +27879,9 @@
       <c r="R105" s="2">
         <v>55.369999</v>
       </c>
-      <c r="S105" s="2">
+      <c r="S105" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.12001099999997678</v>
+        <v>#REF!</v>
       </c>
       <c r="U105" s="1">
         <v>44315</v>
@@ -27903,9 +27903,9 @@
       <c r="R106" s="2">
         <v>55.080002</v>
       </c>
-      <c r="S106" s="2">
+      <c r="S106" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0009999999994079E-2</v>
+        <v>#REF!</v>
       </c>
       <c r="U106" s="1">
         <v>44316</v>
@@ -27927,9 +27927,9 @@
       <c r="R107" s="2">
         <v>57.41</v>
       </c>
-      <c r="S107" s="2">
+      <c r="S107" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
       <c r="U107" s="1">
         <v>44319</v>
@@ -27951,9 +27951,9 @@
       <c r="R108" s="2">
         <v>57.560001</v>
       </c>
-      <c r="S108" s="2">
+      <c r="S108" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.73999000000000592</v>
+        <v>#REF!</v>
       </c>
       <c r="U108" s="1">
         <v>44320</v>
@@ -27975,9 +27975,9 @@
       <c r="R109" s="2">
         <v>58.740001999999997</v>
       </c>
-      <c r="S109" s="2">
+      <c r="S109" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.25</v>
+        <v>#REF!</v>
       </c>
       <c r="U109" s="1">
         <v>44321</v>
@@ -27999,9 +27999,9 @@
       <c r="R110" s="2">
         <v>57.529998999999997</v>
       </c>
-      <c r="S110" s="2">
+      <c r="S110" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.3899989999999889</v>
+        <v>#REF!</v>
       </c>
       <c r="U110" s="1">
         <v>44322</v>
@@ -28023,9 +28023,9 @@
       <c r="R111" s="2">
         <v>59.5</v>
       </c>
-      <c r="S111" s="2">
+      <c r="S111" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>5.7299950000000024</v>
+        <v>#REF!</v>
       </c>
       <c r="U111" s="1">
         <v>44323</v>
@@ -28047,9 +28047,9 @@
       <c r="R112" s="2">
         <v>56.75</v>
       </c>
-      <c r="S112" s="2">
+      <c r="S112" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.2299959999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="U112" s="1">
         <v>44326</v>
@@ -28071,9 +28071,9 @@
       <c r="R113" s="2">
         <v>55.580002</v>
       </c>
-      <c r="S113" s="2">
+      <c r="S113" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.8699949999999887</v>
+        <v>#REF!</v>
       </c>
       <c r="U113" s="1">
         <v>44327</v>
@@ -28095,9 +28095,9 @@
       <c r="R114" s="2">
         <v>52.66</v>
       </c>
-      <c r="S114" s="2">
+      <c r="S114" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-5.3899999999999864</v>
+        <v>#REF!</v>
       </c>
       <c r="U114" s="1">
         <v>44328</v>
@@ -28119,9 +28119,9 @@
       <c r="R115" s="2">
         <v>53.68</v>
       </c>
-      <c r="S115" s="2">
+      <c r="S115" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.6999969999999962</v>
+        <v>#REF!</v>
       </c>
       <c r="U115" s="1">
         <v>44329</v>
@@ -28143,9 +28143,9 @@
       <c r="R116" s="2">
         <v>56.860000999999997</v>
       </c>
-      <c r="S116" s="2">
+      <c r="S116" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>4.3199920000000134</v>
+        <v>#REF!</v>
       </c>
       <c r="U116" s="1">
         <v>44330</v>
@@ -28167,9 +28167,9 @@
       <c r="R117" s="2">
         <v>57.880001</v>
       </c>
-      <c r="S117" s="2">
+      <c r="S117" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.4299929999999961</v>
+        <v>#REF!</v>
       </c>
       <c r="U117" s="1">
         <v>44333</v>
@@ -28191,9 +28191,9 @@
       <c r="R118" s="2">
         <v>56.790000999999997</v>
       </c>
-      <c r="S118" s="2">
+      <c r="S118" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.5</v>
+        <v>#REF!</v>
       </c>
       <c r="U118" s="1">
         <v>44334</v>
@@ -28215,9 +28215,9 @@
       <c r="R119" s="2">
         <v>55.07</v>
       </c>
-      <c r="S119" s="2">
+      <c r="S119" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.4199979999999925</v>
+        <v>#REF!</v>
       </c>
       <c r="U119" s="1">
         <v>44335</v>
@@ -28239,9 +28239,9 @@
       <c r="R120" s="2">
         <v>53.610000999999997</v>
       </c>
-      <c r="S120" s="2">
+      <c r="S120" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-4.2399979999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="U120" s="1">
         <v>44336</v>
@@ -28263,9 +28263,9 @@
       <c r="R121" s="2">
         <v>52.34</v>
       </c>
-      <c r="S121" s="2">
+      <c r="S121" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-7.0008000000001402E-2</v>
+        <v>#REF!</v>
       </c>
       <c r="U121" s="1">
         <v>44337</v>
@@ -28287,9 +28287,9 @@
       <c r="R122" s="2">
         <v>53.150002000000001</v>
       </c>
-      <c r="S122" s="2">
+      <c r="S122" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.3399959999999993</v>
+        <v>#REF!</v>
       </c>
       <c r="U122" s="1">
         <v>44340</v>
@@ -28311,9 +28311,9 @@
       <c r="R123" s="2">
         <v>52.939999</v>
       </c>
-      <c r="S123" s="2">
+      <c r="S123" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.7900010000000037</v>
+        <v>#REF!</v>
       </c>
       <c r="U123" s="1">
         <v>44341</v>
@@ -28335,9 +28335,9 @@
       <c r="R124" s="2">
         <v>54.599997999999999</v>
       </c>
-      <c r="S124" s="2">
+      <c r="S124" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.0400010000000037</v>
+        <v>#REF!</v>
       </c>
       <c r="U124" s="1">
         <v>44342</v>
@@ -28359,9 +28359,9 @@
       <c r="R125" s="2">
         <v>56.41</v>
       </c>
-      <c r="S125" s="2">
+      <c r="S125" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.85999999999999943</v>
+        <v>#REF!</v>
       </c>
       <c r="U125" s="1">
         <v>44343</v>
@@ -28383,9 +28383,9 @@
       <c r="R126" s="2">
         <v>56.709999000000003</v>
       </c>
-      <c r="S126" s="2">
+      <c r="S126" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.369995000000003</v>
+        <v>#REF!</v>
       </c>
       <c r="U126" s="1">
         <v>44344</v>
@@ -28407,9 +28407,9 @@
       <c r="R127" s="2">
         <v>56.27</v>
       </c>
-      <c r="S127" s="2">
+      <c r="S127" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.26000200000000007</v>
+        <v>#REF!</v>
       </c>
       <c r="U127" s="1">
         <v>44348</v>
@@ -28431,9 +28431,9 @@
       <c r="R128" s="2">
         <v>54.52</v>
       </c>
-      <c r="S128" s="2">
+      <c r="S128" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.5500029999999896</v>
+        <v>#REF!</v>
       </c>
       <c r="U128" s="1">
         <v>44349</v>
@@ -28455,9 +28455,9 @@
       <c r="R129" s="2">
         <v>53.689999</v>
       </c>
-      <c r="S129" s="2">
+      <c r="S129" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.90000200000000063</v>
+        <v>#REF!</v>
       </c>
       <c r="U129" s="1">
         <v>44350</v>
@@ -28479,9 +28479,9 @@
       <c r="R130" s="2">
         <v>53.849997999999999</v>
       </c>
-      <c r="S130" s="2">
+      <c r="S130" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.60999999999999943</v>
+        <v>#REF!</v>
       </c>
       <c r="U130" s="1">
         <v>44351</v>
@@ -28503,9 +28503,9 @@
       <c r="R131" s="2">
         <v>54.93</v>
       </c>
-      <c r="S131" s="2">
+      <c r="S131" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.74000500000001068</v>
+        <v>#REF!</v>
       </c>
       <c r="U131" s="1">
         <v>44354</v>
@@ -28527,9 +28527,9 @@
       <c r="R132" s="2">
         <v>55.849997999999999</v>
       </c>
-      <c r="S132" s="2">
+      <c r="S132" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.0299989999999895</v>
+        <v>#REF!</v>
       </c>
       <c r="U132" s="1">
         <v>44355</v>
@@ -28551,9 +28551,9 @@
       <c r="R133" s="2">
         <v>54.549999</v>
       </c>
-      <c r="S133" s="2">
+      <c r="S133" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.95999999999999375</v>
+        <v>#REF!</v>
       </c>
       <c r="U133" s="1">
         <v>44356</v>
@@ -28575,9 +28575,9 @@
       <c r="R134" s="2">
         <v>53.259998000000003</v>
       </c>
-      <c r="S134" s="2">
+      <c r="S134" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.5399929999999955</v>
+        <v>#REF!</v>
       </c>
       <c r="U134" s="1">
         <v>44357</v>
@@ -28599,9 +28599,9 @@
       <c r="R135" s="2">
         <v>55.900002000000001</v>
       </c>
-      <c r="S135" s="2">
+      <c r="S135" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.1500010000000032</v>
+        <v>#REF!</v>
       </c>
       <c r="U135" s="1">
         <v>44358</v>
@@ -28623,9 +28623,9 @@
       <c r="R136" s="2">
         <v>54.439999</v>
       </c>
-      <c r="S136" s="2">
+      <c r="S136" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.120002999999997</v>
+        <v>#REF!</v>
       </c>
       <c r="U136" s="1">
         <v>44361</v>
@@ -28647,9 +28647,9 @@
       <c r="R137" s="2">
         <v>54.830002</v>
       </c>
-      <c r="S137" s="2">
+      <c r="S137" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.54000099999998952</v>
+        <v>#REF!</v>
       </c>
       <c r="U137" s="1">
         <v>44362</v>
@@ -28671,9 +28671,9 @@
       <c r="R138" s="2">
         <v>55.32</v>
       </c>
-      <c r="S138" s="2">
+      <c r="S138" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.72000099999999634</v>
+        <v>#REF!</v>
       </c>
       <c r="U138" s="1">
         <v>44363</v>
@@ -28695,9 +28695,9 @@
       <c r="R139" s="2">
         <v>53.59</v>
       </c>
-      <c r="S139" s="2">
+      <c r="S139" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-4.0999989999999968</v>
+        <v>#REF!</v>
       </c>
       <c r="U139" s="1">
         <v>44364</v>
@@ -28719,9 +28719,9 @@
       <c r="R140" s="2">
         <v>52.27</v>
       </c>
-      <c r="S140" s="2">
+      <c r="S140" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.90999600000000669</v>
+        <v>#REF!</v>
       </c>
       <c r="U140" s="1">
         <v>44365</v>
@@ -28743,9 +28743,9 @@
       <c r="R141" s="2">
         <v>53.34</v>
       </c>
-      <c r="S141" s="2">
+      <c r="S141" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.45999900000001048</v>
+        <v>#REF!</v>
       </c>
       <c r="U141" s="1">
         <v>44368</v>
@@ -28767,9 +28767,9 @@
       <c r="R142" s="2">
         <v>54.110000999999997</v>
       </c>
-      <c r="S142" s="2">
+      <c r="S142" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.6399990000000031</v>
+        <v>#REF!</v>
       </c>
       <c r="U142" s="1">
         <v>44369</v>
@@ -28791,9 +28791,9 @@
       <c r="R143" s="2">
         <v>54.540000999999997</v>
       </c>
-      <c r="S143" s="2">
+      <c r="S143" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.3399960000000135</v>
+        <v>#REF!</v>
       </c>
       <c r="U143" s="1">
         <v>44370</v>
@@ -28815,9 +28815,9 @@
       <c r="R144" s="2">
         <v>55.52</v>
       </c>
-      <c r="S144" s="2">
+      <c r="S144" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.55999700000000985</v>
+        <v>#REF!</v>
       </c>
       <c r="U144" s="1">
         <v>44371</v>
@@ -28839,9 +28839,9 @@
       <c r="R145" s="2">
         <v>56.259998000000003</v>
       </c>
-      <c r="S145" s="2">
+      <c r="S145" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.37999799999998629</v>
+        <v>#REF!</v>
       </c>
       <c r="U145" s="1">
         <v>44372</v>
@@ -28863,9 +28863,9 @@
       <c r="R146" s="2">
         <v>54.57</v>
       </c>
-      <c r="S146" s="2">
+      <c r="S146" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.3600009999999969</v>
+        <v>#REF!</v>
       </c>
       <c r="U146" s="1">
         <v>44375</v>
@@ -28887,9 +28887,9 @@
       <c r="R147" s="2">
         <v>54.23</v>
       </c>
-      <c r="S147" s="2">
+      <c r="S147" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0899959999999993</v>
+        <v>#REF!</v>
       </c>
       <c r="U147" s="1">
         <v>44376</v>
@@ -28911,9 +28911,9 @@
       <c r="R148" s="2">
         <v>57.189999</v>
       </c>
-      <c r="S148" s="2">
+      <c r="S148" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.3099979999999931</v>
+        <v>#REF!</v>
       </c>
       <c r="U148" s="1">
         <v>44377</v>
@@ -28935,9 +28935,9 @@
       <c r="R149" s="2">
         <v>56.610000999999997</v>
       </c>
-      <c r="S149" s="2">
+      <c r="S149" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.5699989999999957</v>
+        <v>#REF!</v>
       </c>
       <c r="U149" s="1">
         <v>44378</v>
@@ -28959,9 +28959,9 @@
       <c r="R150" s="2">
         <v>56.220001000000003</v>
       </c>
-      <c r="S150" s="2">
+      <c r="S150" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.29999499999999557</v>
+        <v>#REF!</v>
       </c>
       <c r="U150" s="1">
         <v>44379</v>
@@ -28983,9 +28983,9 @@
       <c r="R151" s="2">
         <v>54.799999</v>
       </c>
-      <c r="S151" s="2">
+      <c r="S151" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.6100009999999969</v>
+        <v>#REF!</v>
       </c>
       <c r="U151" s="1">
         <v>44383</v>
@@ -29007,9 +29007,9 @@
       <c r="R152" s="2">
         <v>53.040000999999997</v>
       </c>
-      <c r="S152" s="2">
+      <c r="S152" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0100020000000001</v>
+        <v>#REF!</v>
       </c>
       <c r="U152" s="1">
         <v>44384</v>
@@ -29031,9 +29031,9 @@
       <c r="R153" s="2">
         <v>52.34</v>
       </c>
-      <c r="S153" s="2">
+      <c r="S153" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.4400029999999902</v>
+        <v>#REF!</v>
       </c>
       <c r="U153" s="1">
         <v>44385</v>
@@ -29055,9 +29055,9 @@
       <c r="R154" s="2">
         <v>54.84</v>
       </c>
-      <c r="S154" s="2">
+      <c r="S154" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.95999999999999375</v>
+        <v>#REF!</v>
       </c>
       <c r="U154" s="1">
         <v>44386</v>
@@ -29079,9 +29079,9 @@
       <c r="R155" s="2">
         <v>54.279998999999997</v>
       </c>
-      <c r="S155" s="2">
+      <c r="S155" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.93999499999999614</v>
+        <v>#REF!</v>
       </c>
       <c r="U155" s="1">
         <v>44389</v>
@@ -29103,9 +29103,9 @@
       <c r="R156" s="2">
         <v>53.110000999999997</v>
       </c>
-      <c r="S156" s="2">
+      <c r="S156" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.20999899999999627</v>
+        <v>#REF!</v>
       </c>
       <c r="U156" s="1">
         <v>44390</v>
@@ -29127,9 +29127,9 @@
       <c r="R157" s="2">
         <v>51.669998</v>
       </c>
-      <c r="S157" s="2">
+      <c r="S157" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.3499989999999968</v>
+        <v>#REF!</v>
       </c>
       <c r="U157" s="1">
         <v>44391</v>
@@ -29151,9 +29151,9 @@
       <c r="R158" s="2">
         <v>50.200001</v>
       </c>
-      <c r="S158" s="2">
+      <c r="S158" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.84999800000001358</v>
+        <v>#REF!</v>
       </c>
       <c r="U158" s="1">
         <v>44392</v>
@@ -29175,9 +29175,9 @@
       <c r="R159" s="2">
         <v>47.939999</v>
       </c>
-      <c r="S159" s="2">
+      <c r="S159" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.3799979999999863</v>
+        <v>#REF!</v>
       </c>
       <c r="U159" s="1">
         <v>44393</v>
@@ -29199,9 +29199,9 @@
       <c r="R160" s="2">
         <v>46.610000999999997</v>
       </c>
-      <c r="S160" s="2">
+      <c r="S160" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.4199979999999925</v>
+        <v>#REF!</v>
       </c>
       <c r="U160" s="1">
         <v>44396</v>
@@ -29223,9 +29223,9 @@
       <c r="R161" s="2">
         <v>49.650002000000001</v>
       </c>
-      <c r="S161" s="2">
+      <c r="S161" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>4.75</v>
+        <v>#REF!</v>
       </c>
       <c r="U161" s="1">
         <v>44397</v>
@@ -29247,9 +29247,9 @@
       <c r="R162" s="2">
         <v>51.43</v>
       </c>
-      <c r="S162" s="2">
+      <c r="S162" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0002999999997542E-2</v>
+        <v>#REF!</v>
       </c>
       <c r="U162" s="1">
         <v>44398</v>
@@ -29271,9 +29271,9 @@
       <c r="R163" s="2">
         <v>49.759998000000003</v>
       </c>
-      <c r="S163" s="2">
+      <c r="S163" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.22999500000000239</v>
+        <v>#REF!</v>
       </c>
       <c r="U163" s="1">
         <v>44399</v>
@@ -29295,9 +29295,9 @@
       <c r="R164" s="2">
         <v>50</v>
       </c>
-      <c r="S164" s="2">
+      <c r="S164" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.0200040000000001</v>
+        <v>#REF!</v>
       </c>
       <c r="U164" s="1">
         <v>44400</v>
@@ -29319,9 +29319,9 @@
       <c r="R165" s="2">
         <v>51.099997999999999</v>
       </c>
-      <c r="S165" s="2">
+      <c r="S165" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.0199969999999894</v>
+        <v>#REF!</v>
       </c>
       <c r="U165" s="1">
         <v>44403</v>
@@ -29343,9 +29343,9 @@
       <c r="R166" s="2">
         <v>50.139999000000003</v>
       </c>
-      <c r="S166" s="2">
+      <c r="S166" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.86000099999999691</v>
+        <v>#REF!</v>
       </c>
       <c r="U166" s="1">
         <v>44404</v>
@@ -29367,9 +29367,9 @@
       <c r="R167" s="2">
         <v>49.419998</v>
       </c>
-      <c r="S167" s="2">
+      <c r="S167" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1</v>
+        <v>#REF!</v>
       </c>
       <c r="U167" s="1">
         <v>44405</v>
@@ -29391,9 +29391,9 @@
       <c r="R168" s="2">
         <v>50.049999</v>
       </c>
-      <c r="S168" s="2">
+      <c r="S168" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.619995000000003</v>
+        <v>#REF!</v>
       </c>
       <c r="U168" s="1">
         <v>44406</v>
@@ -29415,9 +29415,9 @@
       <c r="R169" s="2">
         <v>56.310001</v>
       </c>
-      <c r="S169" s="2">
+      <c r="S169" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>3.5899969999999968</v>
+        <v>#REF!</v>
       </c>
       <c r="U169" s="1">
         <v>44407</v>
@@ -29439,9 +29439,9 @@
       <c r="R170" s="2">
         <v>57.18</v>
       </c>
-      <c r="S170" s="2">
+      <c r="S170" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>3.4000020000000006</v>
+        <v>#REF!</v>
       </c>
       <c r="U170" s="1">
         <v>44410</v>
@@ -29463,9 +29463,9 @@
       <c r="R171" s="2">
         <v>59.400002000000001</v>
       </c>
-      <c r="S171" s="2">
+      <c r="S171" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.9900059999999939</v>
+        <v>#REF!</v>
       </c>
       <c r="U171" s="1">
         <v>44411</v>
@@ -29487,9 +29487,9 @@
       <c r="R172" s="2">
         <v>58.349997999999999</v>
       </c>
-      <c r="S172" s="2">
+      <c r="S172" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.5400009999999895</v>
+        <v>#REF!</v>
       </c>
       <c r="U172" s="1">
         <v>44412</v>
@@ -29511,9 +29511,9 @@
       <c r="R173" s="2">
         <v>58.599997999999999</v>
       </c>
-      <c r="S173" s="2">
+      <c r="S173" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.3499989999999968</v>
+        <v>#REF!</v>
       </c>
       <c r="U173" s="1">
         <v>44413</v>
@@ -29535,9 +29535,9 @@
       <c r="R174" s="2">
         <v>59.139999000000003</v>
       </c>
-      <c r="S174" s="2">
+      <c r="S174" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.8600009999999969</v>
+        <v>#REF!</v>
       </c>
       <c r="U174" s="1">
         <v>44414</v>
@@ -29559,9 +29559,9 @@
       <c r="R175" s="2">
         <v>58.330002</v>
       </c>
-      <c r="S175" s="2">
+      <c r="S175" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.9300010000000043</v>
+        <v>#REF!</v>
       </c>
       <c r="U175" s="1">
         <v>44417</v>
@@ -29583,9 +29583,9 @@
       <c r="R176" s="2">
         <v>59.860000999999997</v>
       </c>
-      <c r="S176" s="2">
+      <c r="S176" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.29999599999999305</v>
+        <v>#REF!</v>
       </c>
       <c r="U176" s="1">
         <v>44418</v>
@@ -29607,9 +29607,9 @@
       <c r="R177" s="2">
         <v>59.889999000000003</v>
       </c>
-      <c r="S177" s="2">
+      <c r="S177" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.7699970000000036</v>
+        <v>#REF!</v>
       </c>
       <c r="U177" s="1">
         <v>44419</v>
@@ -29631,9 +29631,9 @@
       <c r="R178" s="2">
         <v>60.380001</v>
       </c>
-      <c r="S178" s="2">
+      <c r="S178" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.4000010000000032</v>
+        <v>#REF!</v>
       </c>
       <c r="U178" s="1">
         <v>44420</v>
@@ -29655,9 +29655,9 @@
       <c r="R179" s="2">
         <v>59.240001999999997</v>
       </c>
-      <c r="S179" s="2">
+      <c r="S179" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.5899959999999993</v>
+        <v>#REF!</v>
       </c>
       <c r="U179" s="1">
         <v>44421</v>
@@ -29679,9 +29679,9 @@
       <c r="R180" s="2">
         <v>57.849997999999999</v>
       </c>
-      <c r="S180" s="2">
+      <c r="S180" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.62999700000000303</v>
+        <v>#REF!</v>
       </c>
       <c r="U180" s="1">
         <v>44424</v>
@@ -29703,9 +29703,9 @@
       <c r="R181" s="2">
         <v>55.25</v>
       </c>
-      <c r="S181" s="2">
+      <c r="S181" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.5800020000000075</v>
+        <v>#REF!</v>
       </c>
       <c r="U181" s="1">
         <v>44425</v>
@@ -29727,9 +29727,9 @@
       <c r="R182" s="2">
         <v>55.360000999999997</v>
       </c>
-      <c r="S182" s="2">
+      <c r="S182" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.8499979999999994</v>
+        <v>#REF!</v>
       </c>
       <c r="U182" s="1">
         <v>44426</v>
@@ -29751,9 +29751,9 @@
       <c r="R183" s="2">
         <v>52.990001999999997</v>
       </c>
-      <c r="S183" s="2">
+      <c r="S183" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.29000100000000373</v>
+        <v>#REF!</v>
       </c>
       <c r="U183" s="1">
         <v>44427</v>
@@ -29775,9 +29775,9 @@
       <c r="R184" s="2">
         <v>54.330002</v>
       </c>
-      <c r="S184" s="2">
+      <c r="S184" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.35999300000000289</v>
+        <v>#REF!</v>
       </c>
       <c r="U184" s="1">
         <v>44428</v>
@@ -29799,9 +29799,9 @@
       <c r="R185" s="2">
         <v>57.040000999999997</v>
       </c>
-      <c r="S185" s="2">
+      <c r="S185" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.81000500000000386</v>
+        <v>#REF!</v>
       </c>
       <c r="U185" s="1">
         <v>44431</v>
@@ -29823,9 +29823,9 @@
       <c r="R186" s="2">
         <v>60.549999</v>
       </c>
-      <c r="S186" s="2">
+      <c r="S186" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.0999979999999994</v>
+        <v>#REF!</v>
       </c>
       <c r="U186" s="1">
         <v>44432</v>
@@ -29847,9 +29847,9 @@
       <c r="R187" s="2">
         <v>59.950001</v>
       </c>
-      <c r="S187" s="2">
+      <c r="S187" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.3199989999999957</v>
+        <v>#REF!</v>
       </c>
       <c r="U187" s="1">
         <v>44433</v>
@@ -29871,9 +29871,9 @@
       <c r="R188" s="2">
         <v>57.549999</v>
       </c>
-      <c r="S188" s="2">
+      <c r="S188" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.8499989999999968</v>
+        <v>#REF!</v>
       </c>
       <c r="U188" s="1">
         <v>44434</v>
@@ -29895,9 +29895,9 @@
       <c r="R189" s="2">
         <v>58.389999000000003</v>
       </c>
-      <c r="S189" s="2">
+      <c r="S189" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.7200019999999938</v>
+        <v>#REF!</v>
       </c>
       <c r="U189" s="1">
         <v>44435</v>
@@ -29919,9 +29919,9 @@
       <c r="R190" s="2">
         <v>56.93</v>
       </c>
-      <c r="S190" s="2">
+      <c r="S190" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.25</v>
+        <v>#REF!</v>
       </c>
       <c r="U190" s="1">
         <v>44438</v>
@@ -29943,9 +29943,9 @@
       <c r="R191" s="2">
         <v>56.509998000000003</v>
       </c>
-      <c r="S191" s="2">
+      <c r="S191" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.39000000000000057</v>
+        <v>#REF!</v>
       </c>
       <c r="U191" s="1">
         <v>44439</v>
@@ -29967,9 +29967,9 @@
       <c r="R192" s="2">
         <v>57.150002000000001</v>
       </c>
-      <c r="S192" s="2">
+      <c r="S192" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>8.0001000000009981E-2</v>
+        <v>#REF!</v>
       </c>
       <c r="U192" s="1">
         <v>44440</v>
@@ -29991,9 +29991,9 @@
       <c r="R193" s="2">
         <v>56.900002000000001</v>
       </c>
-      <c r="S193" s="2">
+      <c r="S193" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.1800000000000068</v>
+        <v>#REF!</v>
       </c>
       <c r="U193" s="1">
         <v>44441</v>
@@ -30015,9 +30015,9 @@
       <c r="R194" s="2">
         <v>56.709999000000003</v>
       </c>
-      <c r="S194" s="2">
+      <c r="S194" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.4099960000000067</v>
+        <v>#REF!</v>
       </c>
       <c r="U194" s="1">
         <v>44442</v>
@@ -30039,9 +30039,9 @@
       <c r="R195" s="2">
         <v>56.860000999999997</v>
       </c>
-      <c r="S195" s="2">
+      <c r="S195" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.9799950000000024</v>
+        <v>#REF!</v>
       </c>
       <c r="U195" s="1">
         <v>44446</v>
@@ -30063,9 +30063,9 @@
       <c r="R196" s="2">
         <v>55.459999000000003</v>
       </c>
-      <c r="S196" s="2">
+      <c r="S196" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.7600020000000001</v>
+        <v>#REF!</v>
       </c>
       <c r="U196" s="1">
         <v>44447</v>
@@ -30087,9 +30087,9 @@
       <c r="R197" s="2">
         <v>55.889999000000003</v>
       </c>
-      <c r="S197" s="2">
+      <c r="S197" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.4100040000000007</v>
+        <v>#REF!</v>
       </c>
       <c r="U197" s="1">
         <v>44448</v>
@@ -30111,9 +30111,9 @@
       <c r="R198" s="2">
         <v>54.049999</v>
       </c>
-      <c r="S198" s="2">
+      <c r="S198" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.370002999999997</v>
+        <v>#REF!</v>
       </c>
       <c r="U198" s="1">
         <v>44449</v>
@@ -30135,9 +30135,9 @@
       <c r="R199" s="2">
         <v>53.990001999999997</v>
       </c>
-      <c r="S199" s="2">
+      <c r="S199" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.87999700000000303</v>
+        <v>#REF!</v>
       </c>
       <c r="U199" s="1">
         <v>44452</v>
@@ -30159,9 +30159,9 @@
       <c r="R200" s="2">
         <v>52.880001</v>
       </c>
-      <c r="S200" s="2">
+      <c r="S200" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.5</v>
+        <v>#REF!</v>
       </c>
       <c r="U200" s="1">
         <v>44453</v>
@@ -30183,9 +30183,9 @@
       <c r="R201" s="2">
         <v>51.790000999999997</v>
       </c>
-      <c r="S201" s="2">
+      <c r="S201" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.84999799999999937</v>
+        <v>#REF!</v>
       </c>
       <c r="U201" s="1">
         <v>44454</v>
@@ -30207,9 +30207,9 @@
       <c r="R202" s="2">
         <v>52.799999</v>
       </c>
-      <c r="S202" s="2">
+      <c r="S202" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.19000299999999015</v>
+        <v>#REF!</v>
       </c>
       <c r="U202" s="1">
         <v>44455</v>
@@ -30231,9 +30231,9 @@
       <c r="R203" s="2">
         <v>52.639999000000003</v>
       </c>
-      <c r="S203" s="2">
+      <c r="S203" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.84000400000000752</v>
+        <v>#REF!</v>
       </c>
       <c r="U203" s="1">
         <v>44456</v>
@@ -30255,9 +30255,9 @@
       <c r="R204" s="2">
         <v>50.939999</v>
       </c>
-      <c r="S204" s="2">
+      <c r="S204" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.92000600000000077</v>
+        <v>#REF!</v>
       </c>
       <c r="U204" s="1">
         <v>44459</v>
@@ -30279,9 +30279,9 @@
       <c r="R205" s="2">
         <v>50.98</v>
       </c>
-      <c r="S205" s="2">
+      <c r="S205" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.1800009999999901</v>
+        <v>#REF!</v>
       </c>
       <c r="U205" s="1">
         <v>44460</v>
@@ -30303,9 +30303,9 @@
       <c r="R206" s="2">
         <v>52.52</v>
       </c>
-      <c r="S206" s="2">
+      <c r="S206" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.2399979999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="U206" s="1">
         <v>44461</v>
@@ -30327,9 +30327,9 @@
       <c r="R207" s="2">
         <v>53.900002000000001</v>
       </c>
-      <c r="S207" s="2">
+      <c r="S207" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.0700080000000014</v>
+        <v>#REF!</v>
       </c>
       <c r="U207" s="1">
         <v>44462</v>
@@ -30351,9 +30351,9 @@
       <c r="R208" s="2">
         <v>52.560001</v>
       </c>
-      <c r="S208" s="2">
+      <c r="S208" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.8899990000000031</v>
+        <v>#REF!</v>
       </c>
       <c r="U208" s="1">
         <v>44463</v>
@@ -30375,9 +30375,9 @@
       <c r="R209" s="2">
         <v>53</v>
       </c>
-      <c r="S209" s="2">
+      <c r="S209" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.62000299999999697</v>
+        <v>#REF!</v>
       </c>
       <c r="U209" s="1">
         <v>44466</v>
@@ -30399,9 +30399,9 @@
       <c r="R210" s="2">
         <v>52.509998000000003</v>
       </c>
-      <c r="S210" s="2">
+      <c r="S210" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.0600050000000039</v>
+        <v>#REF!</v>
       </c>
       <c r="U210" s="1">
         <v>44467</v>
@@ -30423,9 +30423,9 @@
       <c r="R211" s="2">
         <v>51.209999000000003</v>
       </c>
-      <c r="S211" s="2">
+      <c r="S211" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.2099989999999963</v>
+        <v>#REF!</v>
       </c>
       <c r="U211" s="1">
         <v>44468</v>
@@ -30447,9 +30447,9 @@
       <c r="R212" s="2">
         <v>48.41</v>
       </c>
-      <c r="S212" s="2">
+      <c r="S212" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-4.879997000000003</v>
+        <v>#REF!</v>
       </c>
       <c r="U212" s="1">
         <v>44469</v>
@@ -30471,9 +30471,9 @@
       <c r="R213" s="2">
         <v>49.830002</v>
       </c>
-      <c r="S213" s="2">
+      <c r="S213" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.4899979999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="U213" s="1">
         <v>44470</v>
@@ -30495,9 +30495,9 @@
       <c r="R214" s="2">
         <v>49.869999</v>
       </c>
-      <c r="S214" s="2">
+      <c r="S214" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.5999989999999968</v>
+        <v>#REF!</v>
       </c>
       <c r="U214" s="1">
         <v>44473</v>
@@ -30519,9 +30519,9 @@
       <c r="R215" s="2">
         <v>50.040000999999997</v>
       </c>
-      <c r="S215" s="2">
+      <c r="S215" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.72999599999999987</v>
+        <v>#REF!</v>
       </c>
       <c r="U215" s="1">
         <v>44474</v>
@@ -30543,9 +30543,9 @@
       <c r="R216" s="2">
         <v>48.459999000000003</v>
       </c>
-      <c r="S216" s="2">
+      <c r="S216" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.0400009999999895</v>
+        <v>#REF!</v>
       </c>
       <c r="U216" s="1">
         <v>44475</v>
@@ -30567,9 +30567,9 @@
       <c r="R217" s="2">
         <v>50.950001</v>
       </c>
-      <c r="S217" s="2">
+      <c r="S217" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.20999899999999627</v>
+        <v>#REF!</v>
       </c>
       <c r="U217" s="1">
         <v>44476</v>
@@ -30591,9 +30591,9 @@
       <c r="R218" s="2">
         <v>49.709999000000003</v>
       </c>
-      <c r="S218" s="2">
+      <c r="S218" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.629997000000003</v>
+        <v>#REF!</v>
       </c>
       <c r="U218" s="1">
         <v>44477</v>
@@ -30615,9 +30615,9 @@
       <c r="R219" s="2">
         <v>49.41</v>
       </c>
-      <c r="S219" s="2">
+      <c r="S219" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.6100009999999969</v>
+        <v>#REF!</v>
       </c>
       <c r="U219" s="1">
         <v>44480</v>
@@ -30639,9 +30639,9 @@
       <c r="R220" s="2">
         <v>50.950001</v>
       </c>
-      <c r="S220" s="2">
+      <c r="S220" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>3.7900009999999895</v>
+        <v>#REF!</v>
       </c>
       <c r="U220" s="1">
         <v>44481</v>
@@ -30663,9 +30663,9 @@
       <c r="R221" s="2">
         <v>51.919998</v>
       </c>
-      <c r="S221" s="2">
+      <c r="S221" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.54000099999998952</v>
+        <v>#REF!</v>
       </c>
       <c r="U221" s="1">
         <v>44482</v>
@@ -30687,9 +30687,9 @@
       <c r="R222" s="2">
         <v>51.75</v>
       </c>
-      <c r="S222" s="2">
+      <c r="S222" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.58000200000000746</v>
+        <v>#REF!</v>
       </c>
       <c r="U222" s="1">
         <v>44483</v>
@@ -30711,9 +30711,9 @@
       <c r="R223" s="2">
         <v>52.450001</v>
       </c>
-      <c r="S223" s="2">
+      <c r="S223" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.29000100000000373</v>
+        <v>#REF!</v>
       </c>
       <c r="U223" s="1">
         <v>44484</v>
@@ -30735,9 +30735,9 @@
       <c r="R224" s="2">
         <v>52.290000999999997</v>
       </c>
-      <c r="S224" s="2">
+      <c r="S224" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>3.2399979999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="U224" s="1">
         <v>44487</v>
@@ -30759,9 +30759,9 @@
       <c r="R225" s="2">
         <v>51.299999</v>
       </c>
-      <c r="S225" s="2">
+      <c r="S225" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.83000200000000746</v>
+        <v>#REF!</v>
       </c>
       <c r="U225" s="1">
         <v>44488</v>
@@ -30783,9 +30783,9 @@
       <c r="R226" s="2">
         <v>51.759998000000003</v>
       </c>
-      <c r="S226" s="2">
+      <c r="S226" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.22000199999999381</v>
+        <v>#REF!</v>
       </c>
       <c r="U226" s="1">
         <v>44489</v>
@@ -30807,9 +30807,9 @@
       <c r="R227" s="2">
         <v>52.610000999999997</v>
       </c>
-      <c r="S227" s="2">
+      <c r="S227" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.7699970000000036</v>
+        <v>#REF!</v>
       </c>
       <c r="U227" s="1">
         <v>44490</v>
@@ -30831,9 +30831,9 @@
       <c r="R228" s="2">
         <v>52.490001999999997</v>
       </c>
-      <c r="S228" s="2">
+      <c r="S228" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.5400010000000037</v>
+        <v>#REF!</v>
       </c>
       <c r="U228" s="1">
         <v>44491</v>
@@ -30855,9 +30855,9 @@
       <c r="R229" s="2">
         <v>53.09</v>
       </c>
-      <c r="S229" s="2">
+      <c r="S229" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.72000199999999381</v>
+        <v>#REF!</v>
       </c>
       <c r="U229" s="1">
         <v>44494</v>
@@ -30879,9 +30879,9 @@
       <c r="R230" s="2">
         <v>54.470001000000003</v>
       </c>
-      <c r="S230" s="2">
+      <c r="S230" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.30999799999999311</v>
+        <v>#REF!</v>
       </c>
       <c r="U230" s="1">
         <v>44495</v>
@@ -30903,9 +30903,9 @@
       <c r="R231" s="2">
         <v>52.66</v>
       </c>
-      <c r="S231" s="2">
+      <c r="S231" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.9300000000000068</v>
+        <v>#REF!</v>
       </c>
       <c r="U231" s="1">
         <v>44496</v>
@@ -30927,9 +30927,9 @@
       <c r="R232" s="2">
         <v>53.830002</v>
       </c>
-      <c r="S232" s="2">
+      <c r="S232" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.2200009999999963</v>
+        <v>#REF!</v>
       </c>
       <c r="U232" s="1">
         <v>44497</v>
@@ -30951,9 +30951,9 @@
       <c r="R233" s="2">
         <v>53.240001999999997</v>
       </c>
-      <c r="S233" s="2">
+      <c r="S233" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.4000010000000032</v>
+        <v>#REF!</v>
       </c>
       <c r="U233" s="1">
         <v>44498</v>
@@ -30975,9 +30975,9 @@
       <c r="R234" s="2">
         <v>55.560001</v>
       </c>
-      <c r="S234" s="2">
+      <c r="S234" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.9199980000000068</v>
+        <v>#REF!</v>
       </c>
       <c r="U234" s="1">
         <v>44501</v>
@@ -30999,9 +30999,9 @@
       <c r="R235" s="2">
         <v>55.529998999999997</v>
       </c>
-      <c r="S235" s="2">
+      <c r="S235" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-9.7600020000000001</v>
+        <v>#REF!</v>
       </c>
       <c r="U235" s="1">
         <v>44502</v>
@@ -31023,9 +31023,9 @@
       <c r="R236" s="2">
         <v>64.25</v>
       </c>
-      <c r="S236" s="2">
+      <c r="S236" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>4.9900050000000107</v>
+        <v>#REF!</v>
       </c>
       <c r="U236" s="1">
         <v>44503</v>
@@ -31047,9 +31047,9 @@
       <c r="R237" s="2">
         <v>66.559997999999993</v>
       </c>
-      <c r="S237" s="2">
+      <c r="S237" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.33000199999999325</v>
+        <v>#REF!</v>
       </c>
       <c r="U237" s="1">
         <v>44504</v>
@@ -31071,9 +31071,9 @@
       <c r="R238" s="2">
         <v>65.309997999999993</v>
       </c>
-      <c r="S238" s="2">
+      <c r="S238" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.88999900000000309</v>
+        <v>#REF!</v>
       </c>
       <c r="U238" s="1">
         <v>44505</v>
@@ -31095,9 +31095,9 @@
       <c r="R239" s="2">
         <v>64.730002999999996</v>
       </c>
-      <c r="S239" s="2">
+      <c r="S239" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>1.9600069999999903</v>
+        <v>#REF!</v>
       </c>
       <c r="U239" s="1">
         <v>44508</v>
@@ -31119,9 +31119,9 @@
       <c r="R240" s="2">
         <v>64.410004000000001</v>
       </c>
-      <c r="S240" s="2">
+      <c r="S240" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>0.26998899999998116</v>
+        <v>#REF!</v>
       </c>
       <c r="U240" s="1">
         <v>44509</v>
@@ -31143,9 +31143,9 @@
       <c r="R241" s="2">
         <v>63.259998000000003</v>
       </c>
-      <c r="S241" s="2">
+      <c r="S241" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.2200009999999963</v>
+        <v>#REF!</v>
       </c>
       <c r="U241" s="1">
         <v>44510</v>
@@ -31167,9 +31167,9 @@
       <c r="R242" s="2">
         <v>64.199996999999996</v>
       </c>
-      <c r="S242" s="2">
+      <c r="S242" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.4699930000000023</v>
+        <v>#REF!</v>
       </c>
       <c r="U242" s="1">
         <v>44511</v>
@@ -31191,9 +31191,9 @@
       <c r="R243" s="2">
         <v>63.34</v>
       </c>
-      <c r="S243" s="2">
+      <c r="S243" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.61999500000000296</v>
+        <v>#REF!</v>
       </c>
       <c r="U243" s="1">
         <v>44512</v>
@@ -31215,9 +31215,9 @@
       <c r="R244" s="2">
         <v>64.059997999999993</v>
       </c>
-      <c r="S244" s="2">
+      <c r="S244" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.52000400000000013</v>
+        <v>#REF!</v>
       </c>
       <c r="U244" s="1">
         <v>44515</v>
@@ -31239,9 +31239,9 @@
       <c r="R245" s="2">
         <v>65.370002999999997</v>
       </c>
-      <c r="S245" s="2">
+      <c r="S245" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.2300039999999939</v>
+        <v>#REF!</v>
       </c>
       <c r="U245" s="1">
         <v>44516</v>
@@ -31263,9 +31263,9 @@
       <c r="R246" s="2">
         <v>63.529998999999997</v>
       </c>
-      <c r="S246" s="2">
+      <c r="S246" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-2.1800000000000068</v>
+        <v>#REF!</v>
       </c>
       <c r="U246" s="1">
         <v>44517</v>
@@ -31287,9 +31287,9 @@
       <c r="R247" s="2">
         <v>64.410004000000001</v>
       </c>
-      <c r="S247" s="2">
+      <c r="S247" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-1.4300000000000068</v>
+        <v>#REF!</v>
       </c>
       <c r="U247" s="1">
         <v>44518</v>
@@ -31311,9 +31311,9 @@
       <c r="R248" s="2">
         <v>62.59</v>
       </c>
-      <c r="S248" s="2">
+      <c r="S248" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-3.0100020000000001</v>
+        <v>#REF!</v>
       </c>
       <c r="U248" s="1">
         <v>44519</v>
@@ -31335,9 +31335,9 @@
       <c r="R249" s="2">
         <v>64.019997000000004</v>
       </c>
-      <c r="S249" s="2">
+      <c r="S249" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>2.4100030000000032</v>
+        <v>#REF!</v>
       </c>
       <c r="U249" s="1">
         <v>44522</v>
@@ -31359,9 +31359,9 @@
       <c r="R250" s="2">
         <v>64.059997999999993</v>
       </c>
-      <c r="S250" s="2">
+      <c r="S250" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.34000400000000752</v>
+        <v>#REF!</v>
       </c>
       <c r="U250" s="1">
         <v>44523</v>
@@ -31383,9 +31383,9 @@
       <c r="R251" s="2">
         <v>63.740001999999997</v>
       </c>
-      <c r="S251" s="2">
+      <c r="S251" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.34999899999999684</v>
+        <v>#REF!</v>
       </c>
       <c r="U251" s="1">
         <v>44524</v>
@@ -31407,9 +31407,9 @@
       <c r="R252" s="2">
         <v>61.549999</v>
       </c>
-      <c r="S252" s="2">
+      <c r="S252" s="2" t="e">
         <f>[1]!Table1[[#This Row],[Close]]-[1]!Table1[[#This Row],[Open]]</f>
-        <v>-0.38999999999998636</v>
+        <v>#REF!</v>
       </c>
       <c r="U252" s="1">
         <v>44526</v>
@@ -31422,9 +31422,9 @@
       </c>
     </row>
     <row r="254" spans="16:23" x14ac:dyDescent="0.35">
-      <c r="S254">
+      <c r="S254" t="e">
         <f>SUM([1]!Table1[difference])</f>
-        <v>-16.749949000000001</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -31442,7 +31442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CCE27A-608C-448C-A936-DD9208012A5D}">
   <dimension ref="R23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>

--- a/Ramu_Sneha_CPI.xlsx
+++ b/Ramu_Sneha_CPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sneha R\OneDrive\Desktop\Data Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F98590-8674-4CD6-A8FD-FD8A72D82D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E37973-9005-446A-B68D-080986BE69E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{ACDF8D19-7604-4108-829E-C6F9D21BCFF2}"/>
   </bookViews>
@@ -31442,7 +31442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CCE27A-608C-448C-A936-DD9208012A5D}">
   <dimension ref="R23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B39" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
